--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N2">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q2">
-        <v>275.7765411566533</v>
+        <v>197.0844489137711</v>
       </c>
       <c r="R2">
-        <v>2481.98887040988</v>
+        <v>1773.76004022394</v>
       </c>
       <c r="S2">
-        <v>0.2222731220834416</v>
+        <v>0.185660493217513</v>
       </c>
       <c r="T2">
-        <v>0.2222731220834416</v>
+        <v>0.1856604932175131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H3">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.240499</v>
       </c>
       <c r="O3">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P3">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q3">
-        <v>10.608564160376</v>
+        <v>7.237687730697665</v>
       </c>
       <c r="R3">
-        <v>95.47707744338399</v>
+        <v>65.13918957627899</v>
       </c>
       <c r="S3">
-        <v>0.008550396153564888</v>
+        <v>0.006818156791374205</v>
       </c>
       <c r="T3">
-        <v>0.00855039615356489</v>
+        <v>0.006818156791374208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H4">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N4">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O4">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P4">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q4">
-        <v>1.677838348530666</v>
+        <v>1.051374531914444</v>
       </c>
       <c r="R4">
-        <v>15.100545136776</v>
+        <v>9.462370787229998</v>
       </c>
       <c r="S4">
-        <v>0.001352320855555989</v>
+        <v>0.0009904318439501608</v>
       </c>
       <c r="T4">
-        <v>0.001352320855555989</v>
+        <v>0.0009904318439501612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H5">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N5">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O5">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P5">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q5">
-        <v>23.68642572927733</v>
+        <v>12.55145404282111</v>
       </c>
       <c r="R5">
-        <v>213.1778315634959</v>
+        <v>112.96308638539</v>
       </c>
       <c r="S5">
-        <v>0.01909102121508356</v>
+        <v>0.01182391183591902</v>
       </c>
       <c r="T5">
-        <v>0.01909102121508356</v>
+        <v>0.01182391183591902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H6">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I6">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J6">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N6">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O6">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P6">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q6">
-        <v>0.8083248940213332</v>
+        <v>0.9880688380147776</v>
       </c>
       <c r="R6">
-        <v>7.274924046191999</v>
+        <v>8.892619542133</v>
       </c>
       <c r="S6">
-        <v>0.0006515017452112757</v>
+        <v>0.0009307956503404287</v>
       </c>
       <c r="T6">
-        <v>0.0006515017452112757</v>
+        <v>0.0009307956503404292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J7">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N7">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O7">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P7">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q7">
-        <v>393.090703471245</v>
+        <v>411.7603986672599</v>
       </c>
       <c r="R7">
-        <v>3537.816331241205</v>
+        <v>3705.84358800534</v>
       </c>
       <c r="S7">
-        <v>0.3168271585250537</v>
+        <v>0.3878927998903193</v>
       </c>
       <c r="T7">
-        <v>0.3168271585250537</v>
+        <v>0.3878927998903194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J8">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.240499</v>
       </c>
       <c r="O8">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P8">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q8">
         <v>15.121402027641</v>
@@ -948,10 +948,10 @@
         <v>136.092618248769</v>
       </c>
       <c r="S8">
-        <v>0.01218769814454017</v>
+        <v>0.01424489336457211</v>
       </c>
       <c r="T8">
-        <v>0.01218769814454017</v>
+        <v>0.01424489336457212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J9">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N9">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O9">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P9">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q9">
-        <v>2.391583613199</v>
+        <v>2.19659338317</v>
       </c>
       <c r="R9">
-        <v>21.524252518791</v>
+        <v>19.76934044853</v>
       </c>
       <c r="S9">
-        <v>0.001927592369531446</v>
+        <v>0.002069268342405333</v>
       </c>
       <c r="T9">
-        <v>0.001927592369531446</v>
+        <v>0.002069268342405334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I10">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J10">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N10">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O10">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P10">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q10">
-        <v>33.76253003097899</v>
+        <v>26.22323450181</v>
       </c>
       <c r="R10">
-        <v>303.8627702788109</v>
+        <v>236.00911051629</v>
       </c>
       <c r="S10">
-        <v>0.02721226007094914</v>
+        <v>0.02470321061959931</v>
       </c>
       <c r="T10">
-        <v>0.02721226007094913</v>
+        <v>0.02470321061959932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I11">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J11">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N11">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O11">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P11">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q11">
-        <v>1.152182850258</v>
+        <v>2.064331411707</v>
       </c>
       <c r="R11">
-        <v>10.369645652322</v>
+        <v>18.578982705363</v>
       </c>
       <c r="S11">
-        <v>0.0009286478039927567</v>
+        <v>0.001944672906331709</v>
       </c>
       <c r="T11">
-        <v>0.0009286478039927564</v>
+        <v>0.00194467290633171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H12">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N12">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O12">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P12">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q12">
-        <v>47.60870855465111</v>
+        <v>26.27546488049556</v>
       </c>
       <c r="R12">
-        <v>428.47837699186</v>
+        <v>236.47918392446</v>
       </c>
       <c r="S12">
-        <v>0.03837214088051034</v>
+        <v>0.02475241347614707</v>
       </c>
       <c r="T12">
-        <v>0.03837214088051034</v>
+        <v>0.02475241347614708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H13">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.240499</v>
       </c>
       <c r="O13">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P13">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q13">
-        <v>1.831410449838666</v>
+        <v>0.9649346299623333</v>
       </c>
       <c r="R13">
-        <v>16.482694048548</v>
+        <v>8.684411669660999</v>
       </c>
       <c r="S13">
-        <v>0.001476098426626668</v>
+        <v>0.0009090024114477317</v>
       </c>
       <c r="T13">
-        <v>0.001476098426626669</v>
+        <v>0.000909002411447732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H14">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I14">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J14">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N14">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O14">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P14">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q14">
-        <v>0.2896537776635555</v>
+        <v>0.1401701389522222</v>
       </c>
       <c r="R14">
-        <v>2.606883998972</v>
+        <v>1.26153125057</v>
       </c>
       <c r="S14">
-        <v>0.0002334580353155186</v>
+        <v>0.0001320452084153175</v>
       </c>
       <c r="T14">
-        <v>0.0002334580353155186</v>
+        <v>0.0001320452084153176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H15">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I15">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J15">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N15">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O15">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P15">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q15">
-        <v>4.08910828497911</v>
+        <v>1.673370434445556</v>
       </c>
       <c r="R15">
-        <v>36.80197456481199</v>
+        <v>15.06033391001</v>
       </c>
       <c r="S15">
-        <v>0.003295780203883548</v>
+        <v>0.001576373894069617</v>
       </c>
       <c r="T15">
-        <v>0.003295780203883548</v>
+        <v>0.001576373894069618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H16">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I16">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J16">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N16">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O16">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P16">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q16">
-        <v>0.1395452424471111</v>
+        <v>0.1317301704718889</v>
       </c>
       <c r="R16">
-        <v>1.255907182024</v>
+        <v>1.185571534247</v>
       </c>
       <c r="S16">
-        <v>0.0001124720637241986</v>
+        <v>0.0001240944608071969</v>
       </c>
       <c r="T16">
-        <v>0.0001124720637241986</v>
+        <v>0.0001240944608071969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H17">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N17">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O17">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P17">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q17">
-        <v>341.4293077758117</v>
+        <v>266.4276359870356</v>
       </c>
       <c r="R17">
-        <v>3072.863769982305</v>
+        <v>2397.84872388332</v>
       </c>
       <c r="S17">
-        <v>0.2751885925170436</v>
+        <v>0.2509842180687281</v>
       </c>
       <c r="T17">
-        <v>0.2751885925170435</v>
+        <v>0.2509842180687283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H18">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I18">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J18">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.240499</v>
       </c>
       <c r="O18">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P18">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q18">
-        <v>13.134092923861</v>
+        <v>9.784232306151333</v>
       </c>
       <c r="R18">
-        <v>118.206836314749</v>
+        <v>88.058090755362</v>
       </c>
       <c r="S18">
-        <v>0.01058594696878985</v>
+        <v>0.00921709148401435</v>
       </c>
       <c r="T18">
-        <v>0.01058594696878985</v>
+        <v>0.009217091484014357</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H19">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I19">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J19">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N19">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O19">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P19">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q19">
-        <v>2.077273083112333</v>
+        <v>1.421295452882222</v>
       </c>
       <c r="R19">
-        <v>18.695457748011</v>
+        <v>12.79165907594</v>
       </c>
       <c r="S19">
-        <v>0.001674261239432241</v>
+        <v>0.001338910382043256</v>
       </c>
       <c r="T19">
-        <v>0.001674261239432241</v>
+        <v>0.001338910382043257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H20">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I20">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J20">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N20">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O20">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P20">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q20">
-        <v>29.32533676182566</v>
+        <v>16.96762097293555</v>
       </c>
       <c r="R20">
-        <v>263.928030856431</v>
+        <v>152.70858875642</v>
       </c>
       <c r="S20">
-        <v>0.02363592686622561</v>
+        <v>0.01598409664448626</v>
       </c>
       <c r="T20">
-        <v>0.02363592686622561</v>
+        <v>0.01598409664448627</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H21">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I21">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J21">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N21">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O21">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P21">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q21">
-        <v>1.000758831284666</v>
+        <v>1.335715964174889</v>
       </c>
       <c r="R21">
-        <v>9.006829481561999</v>
+        <v>12.021443677574</v>
       </c>
       <c r="S21">
-        <v>0.0008066015657070058</v>
+        <v>0.001258291489125643</v>
       </c>
       <c r="T21">
-        <v>0.0008066015657070057</v>
+        <v>0.001258291489125644</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H22">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I22">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J22">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N22">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O22">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P22">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q22">
-        <v>36.80073390988944</v>
+        <v>54.13446600703778</v>
       </c>
       <c r="R22">
-        <v>331.206605189005</v>
+        <v>487.2101940633401</v>
       </c>
       <c r="S22">
-        <v>0.02966102187954634</v>
+        <v>0.05099657387646402</v>
       </c>
       <c r="T22">
-        <v>0.02966102187954634</v>
+        <v>0.05099657387646404</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H23">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I23">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J23">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.240499</v>
       </c>
       <c r="O23">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P23">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q23">
-        <v>1.415649587867666</v>
+        <v>1.988022711007666</v>
       </c>
       <c r="R23">
-        <v>12.740846290809</v>
+        <v>17.892204399069</v>
       </c>
       <c r="S23">
-        <v>0.001140999348065441</v>
+        <v>0.00187278742228307</v>
       </c>
       <c r="T23">
-        <v>0.001140999348065441</v>
+        <v>0.001872787422283071</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H24">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I24">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J24">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N24">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O24">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P24">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q24">
-        <v>0.2238975162612222</v>
+        <v>0.2887878732811111</v>
       </c>
       <c r="R24">
-        <v>2.015077646351</v>
+        <v>2.59909085953</v>
       </c>
       <c r="S24">
-        <v>0.0001804591491262503</v>
+        <v>0.0002720483492437608</v>
       </c>
       <c r="T24">
-        <v>0.0001804591491262503</v>
+        <v>0.0002720483492437609</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H25">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I25">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J25">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N25">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O25">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P25">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q25">
-        <v>3.160812181063444</v>
+        <v>3.447589426587778</v>
       </c>
       <c r="R25">
-        <v>28.447309629571</v>
+        <v>31.02830483929</v>
       </c>
       <c r="S25">
-        <v>0.002547582868570598</v>
+        <v>0.003247750681900933</v>
       </c>
       <c r="T25">
-        <v>0.002547582868570598</v>
+        <v>0.003247750681900934</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H26">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I26">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J26">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N26">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O26">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P26">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q26">
-        <v>0.1078661339824444</v>
+        <v>0.2713992870514444</v>
       </c>
       <c r="R26">
-        <v>0.970795205842</v>
+        <v>2.442593583463</v>
       </c>
       <c r="S26">
-        <v>8.69390205083813E-05</v>
+        <v>0.0002556676884988451</v>
       </c>
       <c r="T26">
-        <v>8.69390205083813E-05</v>
+        <v>0.0002556676884988452</v>
       </c>
     </row>
   </sheetData>
